--- a/Datos/Database by set/Set with text box/Xlsx sets/Morningtide Promos (PMOR).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Morningtide Promos (PMOR).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,84 +444,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Door of Destinies</t>
+          <t>('Door of Destinies', ['{4}', 'Artifact', 'As Door of Destinies enters the battlefield, choose a creature type.', 'Whenever you cast a spell of the chosen type, put a charge counter on Door of Destinies.', 'Creatures you control of the chosen type get +1/+1 for each charge counter on Door of Destinies.'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{4}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Artifact</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>As Door of Destinies enters the battlefield, choose a creature type.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Whenever you cast a spell of the chosen type, put a charge counter on Door of Destinies.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Creatures you control of the chosen type get +1/+1 for each charge counter on Door of Destinies.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Earwig Squad</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>{3}{B}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Creature — Goblin Rogue</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Prowl {2}{B} (You may cast this for its prowl cost if you dealt combat damage to a player this turn with a Goblin or Rogue.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>When Earwig Squad enters the battlefield, if its prowl cost was paid, search target opponent’s library for three cards and exile them. Then that player shuffles their library.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>5/3</t>
+          <t>('Earwig Squad', ['{3}{B}{B}', 'Creature — Goblin Rogue', 'Prowl {2}{B} (You may cast this for its prowl cost if you dealt combat damage to a player this turn with a Goblin or Rogue.)', 'When Earwig Squad enters the battlefield, if its prowl cost was paid, search target opponent’s library for three cards and exile them. Then that player shuffles their library.', '5/3'])</t>
         </is>
       </c>
     </row>
